--- a/sandbox/baseline_manual_eval.xlsx
+++ b/sandbox/baseline_manual_eval.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Google Drive/DataSci/210_capstone/sandbox/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B363E9B-71B5-DD49-B3B0-728DD4A275B1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="3060" windowWidth="26840" windowHeight="15940" xr2:uid="{F087B4E4-6BE3-AC42-87F1-4AC56FDB2750}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -177,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0&quot; sq. ft.&quot;;\-#,##0&quot; sq. ft.&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0,&quot;K&quot;;\(&quot;$&quot;#,##0,&quot;K&quot;\)"/>
@@ -188,6 +185,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -589,26 +590,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FD9A40-474C-0B48-B756-47FFF0AF13D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1048576"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +657,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -683,7 +685,7 @@
       <c r="I2" s="8">
         <v>798803</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="13">
         <v>1961</v>
       </c>
       <c r="K2">
@@ -692,8 +694,11 @@
       <c r="L2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>22</v>
       </c>
@@ -721,7 +726,7 @@
       <c r="I3" s="8">
         <v>1150000</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="13">
         <v>1981</v>
       </c>
       <c r="K3">
@@ -730,8 +735,11 @@
       <c r="L3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>97</v>
       </c>
@@ -759,7 +767,7 @@
       <c r="I4" s="8">
         <v>1125000</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="13">
         <v>2005</v>
       </c>
       <c r="K4">
@@ -768,8 +776,11 @@
       <c r="L4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>33</v>
       </c>
@@ -797,7 +808,7 @@
       <c r="I5" s="8">
         <v>347332</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="13">
         <v>1957</v>
       </c>
       <c r="K5">
@@ -806,8 +817,11 @@
       <c r="L5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>96</v>
       </c>
@@ -835,7 +849,7 @@
       <c r="I6" s="8">
         <v>712125</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="13">
         <v>2010</v>
       </c>
       <c r="K6">
@@ -844,8 +858,11 @@
       <c r="L6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>54</v>
       </c>
@@ -873,7 +890,7 @@
       <c r="I7" s="8">
         <v>770000</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="13">
         <v>1973</v>
       </c>
       <c r="K7">
@@ -882,8 +899,11 @@
       <c r="L7" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>93</v>
       </c>
@@ -911,7 +931,7 @@
       <c r="I8" s="8">
         <v>953000</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="13">
         <v>1976</v>
       </c>
       <c r="K8">
@@ -920,8 +940,11 @@
       <c r="L8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>73</v>
       </c>
@@ -949,7 +972,7 @@
       <c r="I9" s="8">
         <v>905413</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="13">
         <v>1987</v>
       </c>
       <c r="K9">
@@ -958,8 +981,11 @@
       <c r="L9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>31</v>
       </c>
@@ -987,7 +1013,7 @@
       <c r="I10" s="8">
         <v>890000</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="13">
         <v>1974</v>
       </c>
       <c r="K10">
@@ -996,8 +1022,11 @@
       <c r="L10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>120</v>
       </c>
@@ -1025,7 +1054,7 @@
       <c r="I11" s="8">
         <v>1215000</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="13">
         <v>1955</v>
       </c>
       <c r="K11">
@@ -1034,8 +1063,11 @@
       <c r="L11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>91</v>
       </c>
@@ -1063,7 +1095,7 @@
       <c r="I12" s="8">
         <v>739618</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="13">
         <v>1975</v>
       </c>
       <c r="K12">
@@ -1072,8 +1104,11 @@
       <c r="L12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>41</v>
       </c>
@@ -1101,7 +1136,7 @@
       <c r="I13" s="8">
         <v>973361</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="13">
         <v>1908</v>
       </c>
       <c r="K13">
@@ -1110,8 +1145,11 @@
       <c r="L13" s="11">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>64</v>
       </c>
@@ -1139,7 +1177,7 @@
       <c r="I14" s="8">
         <v>1115000</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="13">
         <v>1947</v>
       </c>
       <c r="K14">
@@ -1148,8 +1186,11 @@
       <c r="L14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>47</v>
       </c>
@@ -1177,7 +1218,7 @@
       <c r="I15" s="8">
         <v>659391</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="13">
         <v>1964</v>
       </c>
       <c r="K15">
@@ -1186,8 +1227,11 @@
       <c r="L15">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1215,7 +1259,7 @@
       <c r="I16" s="8">
         <v>685713</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="13">
         <v>1925</v>
       </c>
       <c r="K16">
@@ -1224,8 +1268,11 @@
       <c r="L16">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1253,7 +1300,7 @@
       <c r="I17" s="8">
         <v>789000</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="13">
         <v>1974</v>
       </c>
       <c r="K17">
@@ -1262,8 +1309,11 @@
       <c r="L17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>89</v>
       </c>
@@ -1291,7 +1341,7 @@
       <c r="I18" s="8">
         <v>645000</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="13">
         <v>1984</v>
       </c>
       <c r="K18">
@@ -1300,8 +1350,11 @@
       <c r="L18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>86</v>
       </c>
@@ -1329,7 +1382,7 @@
       <c r="I19" s="8">
         <v>599000</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="13">
         <v>1978</v>
       </c>
       <c r="K19">
@@ -1338,8 +1391,11 @@
       <c r="L19" s="12">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>37</v>
       </c>
@@ -1367,7 +1423,7 @@
       <c r="I20" s="8">
         <v>459000</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="13">
         <v>1973</v>
       </c>
       <c r="K20">
@@ -1376,8 +1432,11 @@
       <c r="L20">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>106</v>
       </c>
@@ -1405,7 +1464,7 @@
       <c r="I21" s="8">
         <v>80643</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="13">
         <v>1961</v>
       </c>
       <c r="K21">
@@ -1414,8 +1473,11 @@
       <c r="L21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>40</v>
       </c>
@@ -1443,7 +1505,7 @@
       <c r="I22" s="8">
         <v>246038</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="13">
         <v>1973</v>
       </c>
       <c r="K22">
@@ -1452,8 +1514,11 @@
       <c r="L22">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>108</v>
       </c>
@@ -1481,7 +1546,7 @@
       <c r="I23" s="8">
         <v>1150000</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="13">
         <v>1954</v>
       </c>
       <c r="K23">
@@ -1489,6 +1554,9 @@
       </c>
       <c r="L23">
         <v>22</v>
+      </c>
+      <c r="O23">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1496,5 +1564,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>